--- a/Phancong.xlsx
+++ b/Phancong.xlsx
@@ -257,14 +257,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,7 +549,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q11" sqref="P11:Q11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,20 +559,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -648,7 +648,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>9</v>
@@ -771,7 +771,7 @@
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3"/>
